--- a/HT-2/Club-BAC-1X-POV.xlsx
+++ b/HT-2/Club-BAC-1X-POV.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juan/Documents/Universidad/2022-20/arquiemp/repo/arquiemp/HT-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8B5D51-59B1-7D48-93F4-8BA71FD365DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A3667E-09CB-9341-8B75-C6DC6BB72E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
   </bookViews>
@@ -34,13 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
-  <si>
-    <t>A Playbook for Business Architecture Construction</t>
-  </si>
-  <si>
-    <t>Modelo conceptual</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Club</t>
   </si>
@@ -63,9 +57,6 @@
     <t>Periodicidad</t>
   </si>
   <si>
-    <t>Invitado</t>
-  </si>
-  <si>
     <t>El Nogal</t>
   </si>
   <si>
@@ -90,12 +81,6 @@
     <t>Maria Paula Hernández</t>
   </si>
   <si>
-    <t>Sofía Castellanos</t>
-  </si>
-  <si>
-    <t>Sergio Cifuentes</t>
-  </si>
-  <si>
     <t>Semestral</t>
   </si>
   <si>
@@ -103,9 +88,6 @@
   </si>
   <si>
     <t>Anual</t>
-  </si>
-  <si>
-    <t>BAC-1X Punto de Vista</t>
   </si>
   <si>
     <t>Regla: Todos los afiliados con membresías de periodicidad mayor a dos meses</t>
@@ -216,31 +198,25 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -258,29 +234,39 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -645,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABDEE2F-9DA5-4F4F-A9BF-B9BEA22ACD0E}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -669,40 +655,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -721,9 +701,6 @@
       <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
       <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -741,179 +718,171 @@
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I15" s="6"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B18" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H18" s="10"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="6"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B19" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="17"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B20" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="G20" s="18"/>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B21" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="C21" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="5">
+        <v>51831640</v>
+      </c>
+      <c r="G21" s="15"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B22" s="14"/>
+      <c r="C22" s="5">
+        <v>1600000</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="5">
+        <v>95174192</v>
+      </c>
+      <c r="G22" s="15"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B23" s="14"/>
+      <c r="C23" s="5">
+        <v>200000</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="5">
+        <v>91836194</v>
+      </c>
+      <c r="G23" s="15"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B24" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B20" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="5" t="s">
+      <c r="C24" s="5">
+        <v>450000</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="5">
-        <v>51831640</v>
-      </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="16"/>
-      <c r="C21" s="5">
-        <v>1600000</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="5" t="s">
+      <c r="F24" s="5">
+        <v>1000283928</v>
+      </c>
+      <c r="G24" s="15"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B25" s="14"/>
+      <c r="C25" s="5">
+        <v>600000</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="5">
-        <v>95174192</v>
-      </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="16"/>
-      <c r="C22" s="5">
-        <v>200000</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="5">
-        <v>91836194</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" s="5">
-        <v>281471623</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="5">
-        <v>450000</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="5">
-        <v>1000283928</v>
-      </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B24" s="16"/>
-      <c r="C24" s="5">
-        <v>600000</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" s="5">
+      <c r="F25" s="5">
         <v>1001472642</v>
       </c>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B25" s="16"/>
-      <c r="C25" s="5">
-        <v>2000000</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="5">
-        <v>1038192321</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H25" s="5">
-        <v>93173162</v>
-      </c>
+      <c r="G25" s="15"/>
+      <c r="H25" s="6"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B26" s="14"/>
+      <c r="C26" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="5">
+        <v>1038192321</v>
+      </c>
+      <c r="G26" s="15"/>
+      <c r="H26" s="6"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B27" s="15"/>
+      <c r="B27" s="19"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B28" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B26"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C19:D19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
